--- a/outputs/2023/metric_full_rel-202308.xlsx
+++ b/outputs/2023/metric_full_rel-202308.xlsx
@@ -397,10 +397,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>33.47</v>
+        <v>28.28</v>
       </c>
       <c r="E2">
-        <v>31.42</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="D3">
-        <v>32.79</v>
+        <v>28.28</v>
       </c>
       <c r="E3">
-        <v>31.56</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="4">
@@ -428,13 +428,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.09</v>
+        <v>0.41</v>
       </c>
       <c r="D4">
-        <v>31.97</v>
+        <v>27.87</v>
       </c>
       <c r="E4">
-        <v>31.83</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="5">
@@ -445,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1.23</v>
+        <v>0.82</v>
       </c>
       <c r="D5">
-        <v>32.38</v>
+        <v>27.87</v>
       </c>
       <c r="E5">
-        <v>31.28</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="6">
@@ -462,13 +462,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="D6">
-        <v>32.38</v>
+        <v>28.55</v>
       </c>
       <c r="E6">
-        <v>31.42</v>
+        <v>19.81</v>
       </c>
     </row>
     <row r="7">
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.96</v>
+        <v>0.55</v>
       </c>
       <c r="D7">
-        <v>32.24</v>
+        <v>28.83</v>
       </c>
       <c r="E7">
-        <v>31.69</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="8">
@@ -496,13 +496,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="D8">
-        <v>32.24</v>
+        <v>28.55</v>
       </c>
       <c r="E8">
-        <v>31.83</v>
+        <v>19.67</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -558,12 +558,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C2">
@@ -576,21 +576,21 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.08</v>
+        <v>17.39</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C3">
@@ -600,24 +600,24 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.38</v>
+        <v>17.39</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C4">
@@ -630,21 +630,21 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.08</v>
+        <v>17.39</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C5">
@@ -654,24 +654,24 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>15.38</v>
+        <v>21.74</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C6">
@@ -684,21 +684,21 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.08</v>
+        <v>21.74</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C7">
@@ -711,21 +711,21 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.08</v>
+        <v>21.74</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C8">
@@ -738,21 +738,21 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.08</v>
+        <v>21.74</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C9">
@@ -765,21 +765,21 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G9">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C10">
@@ -792,21 +792,21 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G10">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C11">
@@ -819,21 +819,21 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.09</v>
+        <v>27.27</v>
       </c>
       <c r="G11">
-        <v>43.48</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C12">
@@ -846,21 +846,21 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G12">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C13">
@@ -873,21 +873,21 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G13">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C14">
@@ -900,21 +900,21 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G14">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C15">
@@ -927,21 +927,21 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.43</v>
+        <v>27.27</v>
       </c>
       <c r="G15">
-        <v>39.13</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C16">
@@ -954,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>42.42</v>
+        <v>15.79</v>
       </c>
       <c r="G16">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C17">
@@ -978,24 +978,24 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>39.39</v>
+        <v>15.79</v>
       </c>
       <c r="G17">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C18">
@@ -1005,24 +1005,24 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>36.36</v>
+        <v>15.79</v>
       </c>
       <c r="G18">
-        <v>21.21</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C19">
@@ -1032,24 +1032,24 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="F19">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G19">
-        <v>24.24</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C20">
@@ -1059,24 +1059,24 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="F20">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G20">
-        <v>24.24</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C21">
@@ -1086,24 +1086,24 @@
         <v>7</v>
       </c>
       <c r="E21">
-        <v>3.03</v>
+        <v>5.26</v>
       </c>
       <c r="F21">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G21">
-        <v>24.24</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C22">
@@ -1113,24 +1113,24 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>3.03</v>
+        <v>5.26</v>
       </c>
       <c r="F22">
-        <v>36.36</v>
+        <v>13.16</v>
       </c>
       <c r="G22">
-        <v>24.24</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C23">
@@ -1143,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G23">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C24">
@@ -1170,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G24">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C25">
@@ -1197,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G25">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C26">
@@ -1224,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G26">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C27">
@@ -1251,21 +1251,21 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G27">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C28">
@@ -1278,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G28">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C29">
@@ -1305,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G29">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C30">
@@ -1332,21 +1332,21 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C31">
@@ -1359,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C32">
@@ -1386,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C33">
@@ -1413,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C34">
@@ -1440,21 +1440,21 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C35">
@@ -1467,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C36">
@@ -1494,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C37">
@@ -1521,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G37">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C38">
@@ -1548,21 +1548,21 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G38">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C39">
@@ -1575,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G39">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C40">
@@ -1602,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G40">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C41">
@@ -1626,24 +1626,24 @@
         <v>6</v>
       </c>
       <c r="E41">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>62.96</v>
+        <v>45.45</v>
       </c>
       <c r="G41">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C42">
@@ -1653,24 +1653,24 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>62.96</v>
+        <v>45.45</v>
       </c>
       <c r="G42">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C43">
@@ -1683,21 +1683,21 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>66.67</v>
+        <v>45.45</v>
       </c>
       <c r="G43">
-        <v>7.41</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C44">
@@ -1710,21 +1710,21 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C45">
@@ -1737,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G45">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C46">
@@ -1761,24 +1761,24 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F46">
-        <v>50</v>
+        <v>6.06</v>
       </c>
       <c r="G46">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C47">
@@ -1791,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G47">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C48">
@@ -1818,21 +1818,21 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C49">
@@ -1845,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>9.09</v>
       </c>
       <c r="G49">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C50">
@@ -1869,24 +1869,24 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>6.06</v>
       </c>
       <c r="G50">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C51">
@@ -1899,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>54.55</v>
+        <v>16.67</v>
       </c>
       <c r="G51">
-        <v>45.45</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C52">
@@ -1926,21 +1926,21 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>63.64</v>
+        <v>16.67</v>
       </c>
       <c r="G52">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C53">
@@ -1953,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G53">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C54">
@@ -1980,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G54">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C55">
@@ -2007,21 +2007,21 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>72.73</v>
+        <v>16.67</v>
       </c>
       <c r="G55">
-        <v>27.27</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C56">
@@ -2031,24 +2031,24 @@
         <v>7</v>
       </c>
       <c r="E56">
-        <v>9.09</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>54.55</v>
+        <v>16.67</v>
       </c>
       <c r="G56">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C57">
@@ -2061,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>63.64</v>
+        <v>16.67</v>
       </c>
       <c r="G57">
-        <v>36.36</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C58">
@@ -2088,21 +2088,21 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C59">
@@ -2115,21 +2115,21 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C60">
@@ -2142,21 +2142,21 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C61">
@@ -2169,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C62">
@@ -2196,21 +2196,21 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C63">
@@ -2223,21 +2223,21 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C64">
@@ -2250,21 +2250,21 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C65">
@@ -2277,21 +2277,21 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G65">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C66">
@@ -2304,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G66">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C67">
@@ -2331,21 +2331,21 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>21.21</v>
+        <v>37.5</v>
       </c>
       <c r="G67">
-        <v>3.03</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C68">
@@ -2358,21 +2358,21 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G68">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C69">
@@ -2385,21 +2385,21 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G69">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C70">
@@ -2412,21 +2412,21 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G70">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C71">
@@ -2439,21 +2439,21 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>21.21</v>
+        <v>33.33</v>
       </c>
       <c r="G71">
-        <v>3.03</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C72">
@@ -2466,21 +2466,21 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G72">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C73">
@@ -2493,21 +2493,21 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G73">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C74">
@@ -2520,21 +2520,21 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G74">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C75">
@@ -2547,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G75">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C76">
@@ -2574,21 +2574,21 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G76">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C77">
@@ -2601,21 +2601,21 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G77">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C78">
@@ -2628,21 +2628,21 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>41.67</v>
+        <v>54.55</v>
       </c>
       <c r="G78">
-        <v>16.67</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C79">
@@ -2655,21 +2655,21 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G79">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C80">
@@ -2682,21 +2682,21 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>45.45</v>
+        <v>3.33</v>
       </c>
       <c r="G80">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C81">
@@ -2709,21 +2709,21 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>45.45</v>
+        <v>3.33</v>
       </c>
       <c r="G81">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C82">
@@ -2736,21 +2736,21 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G82">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C83">
@@ -2763,21 +2763,21 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G83">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C84">
@@ -2790,21 +2790,21 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G84">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C85">
@@ -2817,21 +2817,21 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>50</v>
+        <v>3.33</v>
       </c>
       <c r="G85">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C86">
@@ -2844,21 +2844,21 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G86">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C87">
@@ -2871,21 +2871,21 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G87">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C88">
@@ -2898,21 +2898,21 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G88">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C89">
@@ -2925,21 +2925,21 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G89">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C90">
@@ -2952,21 +2952,21 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G90">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C91">
@@ -2979,21 +2979,21 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>20.83</v>
+        <v>19.44</v>
       </c>
       <c r="G91">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C92">
@@ -3006,21 +3006,21 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>16.67</v>
+        <v>19.44</v>
       </c>
       <c r="G92">
-        <v>79.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C93">
@@ -3033,21 +3033,21 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G93">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C94">
@@ -3060,21 +3060,21 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G94">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C95">
@@ -3087,21 +3087,21 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G95">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C96">
@@ -3114,21 +3114,21 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G96">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C97">
@@ -3141,21 +3141,21 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>59.09</v>
+        <v>36.36</v>
       </c>
       <c r="G97">
-        <v>31.82</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C98">
@@ -3168,21 +3168,21 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G98">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C99">
@@ -3195,21 +3195,21 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>59.09</v>
+        <v>45.45</v>
       </c>
       <c r="G99">
-        <v>31.82</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C100">
@@ -3222,21 +3222,21 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>16.67</v>
+        <v>25</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C101">
@@ -3246,24 +3246,24 @@
         <v>3</v>
       </c>
       <c r="E101">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>13.33</v>
+        <v>31.25</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C102">
@@ -3273,24 +3273,24 @@
         <v>4</v>
       </c>
       <c r="E102">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C103">
@@ -3300,24 +3300,24 @@
         <v>5</v>
       </c>
       <c r="E103">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C104">
@@ -3327,24 +3327,24 @@
         <v>6</v>
       </c>
       <c r="E104">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>13.33</v>
+        <v>31.25</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C105">
@@ -3357,21 +3357,21 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>16.67</v>
+        <v>31.25</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C106">
@@ -3381,24 +3381,24 @@
         <v>8</v>
       </c>
       <c r="E106">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>13.33</v>
+        <v>25</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C107">
@@ -3411,21 +3411,21 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G107">
-        <v>2.78</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C108">
@@ -3435,24 +3435,24 @@
         <v>3</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F108">
-        <v>27.78</v>
+        <v>42.31</v>
       </c>
       <c r="G108">
-        <v>2.78</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C109">
@@ -3462,24 +3462,24 @@
         <v>4</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F109">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G109">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C110">
@@ -3489,24 +3489,24 @@
         <v>5</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="F110">
-        <v>27.78</v>
+        <v>42.31</v>
       </c>
       <c r="G110">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C111">
@@ -3516,24 +3516,24 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F111">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G111">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C112">
@@ -3543,24 +3543,24 @@
         <v>7</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F112">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G112">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C113">
@@ -3570,24 +3570,24 @@
         <v>8</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F113">
-        <v>27.78</v>
+        <v>44.23</v>
       </c>
       <c r="G113">
-        <v>2.78</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C114">
@@ -3600,21 +3600,21 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="G114">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C115">
@@ -3627,21 +3627,21 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>9.09</v>
+        <v>27.27</v>
       </c>
       <c r="G115">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C116">
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G116">
         <v>54.55</v>
@@ -3663,12 +3663,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C117">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G117">
         <v>54.55</v>
@@ -3690,12 +3690,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C118">
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G118">
         <v>54.55</v>
@@ -3717,12 +3717,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C119">
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G119">
         <v>54.55</v>
@@ -3744,12 +3744,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C120">
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>9.09</v>
+        <v>18.18</v>
       </c>
       <c r="G120">
         <v>54.55</v>
@@ -3771,12 +3771,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C121">
@@ -3789,21 +3789,21 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="G121">
-        <v>56.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C122">
@@ -3816,21 +3816,21 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>31.25</v>
+        <v>20</v>
       </c>
       <c r="G122">
-        <v>56.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C123">
@@ -3843,21 +3843,21 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G123">
-        <v>62.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C124">
@@ -3870,21 +3870,21 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G124">
-        <v>62.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C125">
@@ -3897,21 +3897,21 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G125">
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C126">
@@ -3924,21 +3924,21 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G126">
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C127">
@@ -3951,21 +3951,21 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G127">
-        <v>62.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C128">
@@ -3978,21 +3978,21 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>50</v>
+        <v>46.67</v>
       </c>
       <c r="G128">
-        <v>28.85</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C129">
@@ -4005,21 +4005,21 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>51.92</v>
+        <v>50</v>
       </c>
       <c r="G129">
-        <v>26.92</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C130">
@@ -4032,21 +4032,21 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>51.92</v>
+        <v>50</v>
       </c>
       <c r="G130">
-        <v>26.92</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C131">
@@ -4059,21 +4059,21 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G131">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C132">
@@ -4086,21 +4086,21 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G132">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C133">
@@ -4113,21 +4113,21 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G133">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C134">
@@ -4140,21 +4140,21 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>53.85</v>
+        <v>53.33</v>
       </c>
       <c r="G134">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C135">
@@ -4167,21 +4167,21 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>27.27</v>
+        <v>50</v>
       </c>
       <c r="G135">
-        <v>54.55</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C136">
@@ -4194,21 +4194,21 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>27.27</v>
+        <v>50</v>
       </c>
       <c r="G136">
-        <v>54.55</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C137">
@@ -4221,21 +4221,21 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G137">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C138">
@@ -4248,21 +4248,21 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G138">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C139">
@@ -4275,21 +4275,21 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G139">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C140">
@@ -4302,21 +4302,21 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G140">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C141">
@@ -4329,21 +4329,21 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>9.09</v>
+        <v>50</v>
       </c>
       <c r="G141">
-        <v>72.73</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C142">
@@ -4356,21 +4356,21 @@
         <v>0</v>
       </c>
       <c r="F142">
+        <v>25</v>
+      </c>
+      <c r="G142">
         <v>50</v>
-      </c>
-      <c r="G142">
-        <v>30</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C143">
@@ -4383,21 +4383,21 @@
         <v>0</v>
       </c>
       <c r="F143">
+        <v>25</v>
+      </c>
+      <c r="G143">
         <v>50</v>
-      </c>
-      <c r="G143">
-        <v>30</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C144">
@@ -4410,21 +4410,21 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G144">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C145">
@@ -4437,21 +4437,21 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G145">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C146">
@@ -4464,21 +4464,21 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G146">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C147">
@@ -4491,21 +4491,21 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G147">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C148">
@@ -4518,21 +4518,21 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G148">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C149">
@@ -4545,21 +4545,21 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>60</v>
+        <v>30.3</v>
       </c>
       <c r="G149">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C150">
@@ -4572,21 +4572,21 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>56.67</v>
+        <v>30.3</v>
       </c>
       <c r="G150">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C151">
@@ -4596,24 +4596,24 @@
         <v>4</v>
       </c>
       <c r="E151">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G151">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C152">
@@ -4623,24 +4623,24 @@
         <v>5</v>
       </c>
       <c r="E152">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>56.67</v>
+        <v>30.3</v>
       </c>
       <c r="G152">
-        <v>26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C153">
@@ -4650,24 +4650,24 @@
         <v>6</v>
       </c>
       <c r="E153">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G153">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C154">
@@ -4677,24 +4677,24 @@
         <v>7</v>
       </c>
       <c r="E154">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G154">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C155">
@@ -4704,24 +4704,24 @@
         <v>8</v>
       </c>
       <c r="E155">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>53.33</v>
+        <v>30.3</v>
       </c>
       <c r="G155">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C156">
@@ -4734,21 +4734,21 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G156">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C157">
@@ -4758,24 +4758,24 @@
         <v>3</v>
       </c>
       <c r="E157">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="F157">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G157">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C158">
@@ -4785,24 +4785,24 @@
         <v>4</v>
       </c>
       <c r="E158">
-        <v>4.55</v>
+        <v>2.7</v>
       </c>
       <c r="F158">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G158">
-        <v>63.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C159">
@@ -4812,24 +4812,24 @@
         <v>5</v>
       </c>
       <c r="E159">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G159">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C160">
@@ -4839,24 +4839,24 @@
         <v>6</v>
       </c>
       <c r="E160">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G160">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C161">
@@ -4866,24 +4866,24 @@
         <v>7</v>
       </c>
       <c r="E161">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G161">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C162">
@@ -4893,24 +4893,24 @@
         <v>8</v>
       </c>
       <c r="E162">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>31.82</v>
+        <v>5.41</v>
       </c>
       <c r="G162">
-        <v>59.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C163">
@@ -4923,21 +4923,21 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G163">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C164">
@@ -4950,21 +4950,21 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G164">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C165">
@@ -4977,21 +4977,21 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G165">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C166">
@@ -5004,21 +5004,21 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G166">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C167">
@@ -5031,21 +5031,21 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G167">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C168">
@@ -5058,21 +5058,21 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G168">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C169">
@@ -5085,21 +5085,21 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G169">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C170">
@@ -5112,21 +5112,21 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>51.52</v>
+        <v>42.42</v>
       </c>
       <c r="G170">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C171">
@@ -5139,21 +5139,21 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>51.52</v>
+        <v>42.42</v>
       </c>
       <c r="G171">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C172">
@@ -5163,24 +5163,24 @@
         <v>4</v>
       </c>
       <c r="E172">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>48.48</v>
+        <v>42.42</v>
       </c>
       <c r="G172">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C173">
@@ -5190,24 +5190,24 @@
         <v>5</v>
       </c>
       <c r="E173">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>45.45</v>
+        <v>42.42</v>
       </c>
       <c r="G173">
-        <v>12.12</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C174">
@@ -5217,24 +5217,24 @@
         <v>6</v>
       </c>
       <c r="E174">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G174">
-        <v>12.12</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C175">
@@ -5244,24 +5244,24 @@
         <v>7</v>
       </c>
       <c r="E175">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G175">
-        <v>12.12</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C176">
@@ -5271,24 +5271,24 @@
         <v>8</v>
       </c>
       <c r="E176">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>48.48</v>
+        <v>45.45</v>
       </c>
       <c r="G176">
-        <v>12.12</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C177">
@@ -5301,21 +5301,21 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C178">
@@ -5328,21 +5328,21 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C179">
@@ -5355,21 +5355,21 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>50.67</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C180">
@@ -5379,24 +5379,24 @@
         <v>5</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F180">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C181">
@@ -5406,24 +5406,24 @@
         <v>6</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="F181">
-        <v>16.22</v>
+        <v>37.33</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C182">
@@ -5433,24 +5433,24 @@
         <v>7</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="F182">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C183">
@@ -5460,24 +5460,24 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="F183">
-        <v>16.22</v>
+        <v>38.67</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C184">
@@ -5490,21 +5490,21 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G184">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C185">
@@ -5517,21 +5517,21 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G185">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C186">
@@ -5544,21 +5544,21 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G186">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C187">
@@ -5571,21 +5571,21 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>50</v>
+        <v>13.04</v>
       </c>
       <c r="G187">
-        <v>50</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C188">
@@ -5598,21 +5598,21 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G188">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C189">
@@ -5625,21 +5625,21 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G189">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C190">
@@ -5652,766 +5652,10 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>50</v>
+        <v>17.39</v>
       </c>
       <c r="G190">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C191">
-        <v>2023</v>
-      </c>
-      <c r="D191">
-        <v>2</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>33.33</v>
-      </c>
-      <c r="G191">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C192">
-        <v>2023</v>
-      </c>
-      <c r="D192">
-        <v>3</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>33.33</v>
-      </c>
-      <c r="G192">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C193">
-        <v>2023</v>
-      </c>
-      <c r="D193">
-        <v>4</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
-        <v>33.33</v>
-      </c>
-      <c r="G193">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C194">
-        <v>2023</v>
-      </c>
-      <c r="D194">
-        <v>5</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>33.33</v>
-      </c>
-      <c r="G194">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C195">
-        <v>2023</v>
-      </c>
-      <c r="D195">
-        <v>6</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>33.33</v>
-      </c>
-      <c r="G195">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C196">
-        <v>2023</v>
-      </c>
-      <c r="D196">
-        <v>7</v>
-      </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="F196">
-        <v>33.33</v>
-      </c>
-      <c r="G196">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>IN-TS</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="C197">
-        <v>2023</v>
-      </c>
-      <c r="D197">
-        <v>8</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197">
-        <v>33.33</v>
-      </c>
-      <c r="G197">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C198">
-        <v>2023</v>
-      </c>
-      <c r="D198">
-        <v>2</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <v>7.69</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C199">
-        <v>2023</v>
-      </c>
-      <c r="D199">
-        <v>3</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199">
-        <v>7.69</v>
-      </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C200">
-        <v>2023</v>
-      </c>
-      <c r="D200">
-        <v>4</v>
-      </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200">
-        <v>7.69</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C201">
-        <v>2023</v>
-      </c>
-      <c r="D201">
-        <v>5</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201">
-        <v>7.69</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C202">
-        <v>2023</v>
-      </c>
-      <c r="D202">
-        <v>6</v>
-      </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-      <c r="F202">
-        <v>7.69</v>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C203">
-        <v>2023</v>
-      </c>
-      <c r="D203">
-        <v>7</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-      <c r="F203">
-        <v>7.69</v>
-      </c>
-      <c r="G203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>IN-UL</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Uttarakhand</t>
-        </is>
-      </c>
-      <c r="C204">
-        <v>2023</v>
-      </c>
-      <c r="D204">
-        <v>8</v>
-      </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204">
-        <v>7.69</v>
-      </c>
-      <c r="G204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C205">
-        <v>2023</v>
-      </c>
-      <c r="D205">
-        <v>2</v>
-      </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205">
-        <v>29.33</v>
-      </c>
-      <c r="G205">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C206">
-        <v>2023</v>
-      </c>
-      <c r="D206">
-        <v>3</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206">
-        <v>28</v>
-      </c>
-      <c r="G206">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C207">
-        <v>2023</v>
-      </c>
-      <c r="D207">
-        <v>4</v>
-      </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-      <c r="F207">
-        <v>29.33</v>
-      </c>
-      <c r="G207">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C208">
-        <v>2023</v>
-      </c>
-      <c r="D208">
-        <v>5</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-      <c r="F208">
-        <v>29.33</v>
-      </c>
-      <c r="G208">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C209">
-        <v>2023</v>
-      </c>
-      <c r="D209">
-        <v>6</v>
-      </c>
-      <c r="E209">
-        <v>1.33</v>
-      </c>
-      <c r="F209">
-        <v>28</v>
-      </c>
-      <c r="G209">
-        <v>65.33</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C210">
-        <v>2023</v>
-      </c>
-      <c r="D210">
-        <v>7</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210">
-        <v>28</v>
-      </c>
-      <c r="G210">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>IN-UP</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="C211">
-        <v>2023</v>
-      </c>
-      <c r="D211">
-        <v>8</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211">
-        <v>28</v>
-      </c>
-      <c r="G211">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C212">
-        <v>2023</v>
-      </c>
-      <c r="D212">
-        <v>2</v>
-      </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-      <c r="F212">
-        <v>39.13</v>
-      </c>
-      <c r="G212">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C213">
-        <v>2023</v>
-      </c>
-      <c r="D213">
-        <v>3</v>
-      </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-      <c r="F213">
-        <v>39.13</v>
-      </c>
-      <c r="G213">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C214">
-        <v>2023</v>
-      </c>
-      <c r="D214">
-        <v>4</v>
-      </c>
-      <c r="E214">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F214">
-        <v>30.43</v>
-      </c>
-      <c r="G214">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C215">
-        <v>2023</v>
-      </c>
-      <c r="D215">
-        <v>5</v>
-      </c>
-      <c r="E215">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F215">
-        <v>30.43</v>
-      </c>
-      <c r="G215">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C216">
-        <v>2023</v>
-      </c>
-      <c r="D216">
-        <v>6</v>
-      </c>
-      <c r="E216">
-        <v>4.35</v>
-      </c>
-      <c r="F216">
-        <v>34.78</v>
-      </c>
-      <c r="G216">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C217">
-        <v>2023</v>
-      </c>
-      <c r="D217">
-        <v>7</v>
-      </c>
-      <c r="E217">
-        <v>4.35</v>
-      </c>
-      <c r="F217">
-        <v>34.78</v>
-      </c>
-      <c r="G217">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C218">
-        <v>2023</v>
-      </c>
-      <c r="D218">
-        <v>8</v>
-      </c>
-      <c r="E218">
-        <v>4.35</v>
-      </c>
-      <c r="F218">
-        <v>34.78</v>
-      </c>
-      <c r="G218">
-        <v>13.04</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6475,10 +5719,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F2">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="3">
@@ -6497,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F3">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="4">
@@ -6519,10 +5763,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.67</v>
+        <v>13.33</v>
       </c>
       <c r="F4">
-        <v>93.33</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="5">
@@ -6541,10 +5785,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.67</v>
+        <v>17.78</v>
       </c>
       <c r="F5">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -6563,10 +5807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.67</v>
+        <v>17.78</v>
       </c>
       <c r="F6">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -6582,13 +5826,13 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="E7">
-        <v>6.67</v>
+        <v>15.56</v>
       </c>
       <c r="F7">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -6604,13 +5848,13 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="E8">
-        <v>6.67</v>
+        <v>15.56</v>
       </c>
       <c r="F8">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -6629,10 +5873,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.93</v>
+        <v>29.46</v>
       </c>
       <c r="F9">
-        <v>40.18</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="10">
@@ -6648,13 +5892,13 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>33.04</v>
+        <v>30.36</v>
       </c>
       <c r="F10">
-        <v>40.18</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="11">
@@ -6670,13 +5914,13 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>28.57</v>
+        <v>26.79</v>
       </c>
       <c r="F11">
-        <v>43.75</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="12">
@@ -6692,13 +5936,13 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E12">
+        <v>27.68</v>
+      </c>
+      <c r="F12">
         <v>29.46</v>
-      </c>
-      <c r="F12">
-        <v>43.75</v>
       </c>
     </row>
     <row r="13">
@@ -6714,13 +5958,13 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>29.46</v>
       </c>
       <c r="F13">
-        <v>43.75</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="14">
@@ -6736,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>29.46</v>
+        <v>30.36</v>
       </c>
       <c r="F14">
-        <v>43.75</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="15">
@@ -6758,13 +6002,13 @@
         <v>8</v>
       </c>
       <c r="D15">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>29.46</v>
       </c>
       <c r="F15">
-        <v>43.75</v>
+        <v>27.68</v>
       </c>
     </row>
   </sheetData>
